--- a/user_data.xlsx
+++ b/user_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,13 +433,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="4.8" customWidth="1" min="1" max="1"/>
+    <col width="15.6" customWidth="1" min="1" max="1"/>
     <col width="7.199999999999999" customWidth="1" min="2" max="2"/>
     <col width="10.8" customWidth="1" min="3" max="3"/>
     <col width="9.6" customWidth="1" min="4" max="4"/>
-    <col width="8.4" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="7.199999999999999" customWidth="1" min="7" max="7"/>
+    <col width="13.2" customWidth="1" min="5" max="5"/>
+    <col width="8.4" customWidth="1" min="6" max="6"/>
+    <col width="8.4" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,6 +476,68 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12311231231</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dsa</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>das</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>598544166</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>03/07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12311231232</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>d</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>23</v>
+      </c>
+      <c r="E3" t="n">
+        <v>598544169</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>08/07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>21:50</t>
         </is>
       </c>
     </row>
